--- a/data/trans_dic/P15D$consultar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$consultar-Clase-trans_dic.xlsx
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02729444395690621</v>
+        <v>0.02669181045541025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04349758242629945</v>
+        <v>0.043813523825585</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09910043925754622</v>
+        <v>0.08829618549652084</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03704041789477679</v>
+        <v>0.03502015378332287</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04568595354751075</v>
+        <v>0.05355539095610574</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05797197053165563</v>
+        <v>0.06090963796050593</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3283708467830309</v>
+        <v>0.3809544121152752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3100306819000884</v>
+        <v>0.3278230274523797</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3706510615282975</v>
+        <v>0.4109591717189426</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1891716586461857</v>
+        <v>0.2090524160703284</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5759282763151328</v>
+        <v>0.571421643413255</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3155590313984145</v>
+        <v>0.3667405683037141</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2896579812324566</v>
+        <v>0.2856814161630286</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3587349554549253</v>
+        <v>0.3552706118392754</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3022120001359295</v>
+        <v>0.2971039535911402</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2594145328803006</v>
+        <v>0.2272007602017485</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2590505626382616</v>
+        <v>0.2585075878990255</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2208872932427177</v>
+        <v>0.2251428126090875</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1698830563690066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09531275340231513</v>
+        <v>0.09531275340231511</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1615281567815568</v>
@@ -821,7 +821,7 @@
         <v>0.04420744426566674</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2537531169876039</v>
+        <v>0.2537531169876038</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1469741319835527</v>
@@ -833,7 +833,7 @@
         <v>0.09861261457830191</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1733631256742842</v>
+        <v>0.1733631256742841</v>
       </c>
     </row>
     <row r="8">
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05516438778535186</v>
+        <v>0.0529865203422662</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05392138814437825</v>
+        <v>0.05485647481934564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02306995642368303</v>
+        <v>0.02145520836350588</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1119087603571077</v>
+        <v>0.1247971523447183</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
+        <v>0.04590512574556102</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05026212540883108</v>
+        <v>0.06038736310598959</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02467400478181467</v>
+        <v>0.02440516832024493</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09629190218891202</v>
+        <v>0.09430197615135115</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3871216151943493</v>
+        <v>0.3920023227241751</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3069030839181435</v>
+        <v>0.2870416659067047</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4088909232402503</v>
+        <v>0.45912420921581</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2652564102065536</v>
+        <v>0.268814968505085</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7026471306760226</v>
+        <v>0.6633995092252932</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3326242052370906</v>
+        <v>0.3159612234295971</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2343210319544939</v>
+        <v>0.2482048331846022</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4167668795309067</v>
+        <v>0.438176103436045</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3599593557226958</v>
+        <v>0.3903900118244737</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2426363921612108</v>
+        <v>0.2458846363765422</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2192155165565895</v>
+        <v>0.2267633471147356</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2894049219096366</v>
+        <v>0.2916291021347584</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1638347693764048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1168870072471025</v>
+        <v>0.1168870072471026</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0624596840417186</v>
+        <v>0.06386403016935181</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01676166905942982</v>
+        <v>0.01672549286043768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05887134949146033</v>
+        <v>0.06239592072405597</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04293541092264207</v>
+        <v>0.04071969784661836</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.01016631303332365</v>
+        <v>0.06318241401049085</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1193065855180842</v>
+        <v>0.1135923540917679</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05311224492340222</v>
+        <v>0.05304113696301919</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0309338490029124</v>
+        <v>0.03189130513878921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07995424368905779</v>
+        <v>0.07601194236544327</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0782970841170387</v>
+        <v>0.08031303639042132</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3529898622776864</v>
+        <v>0.3372218476256717</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1620252989665877</v>
+        <v>0.1556935759509964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3267687098017399</v>
+        <v>0.3666570868279435</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2518327803864197</v>
+        <v>0.2629115229025333</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.4906925758365041</v>
+        <v>0.5067164441138631</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6311738791619101</v>
+        <v>0.635386386104461</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5311640732618713</v>
+        <v>0.5378224533621807</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3025863085239281</v>
+        <v>0.300124053752924</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1770033772998755</v>
+        <v>0.1810380001865688</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.318629143886362</v>
+        <v>0.3392017483632589</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2784466425303551</v>
+        <v>0.2720820112238301</v>
       </c>
     </row>
     <row r="13">
@@ -1112,38 +1112,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02595383344599661</v>
+        <v>0.02695751582448533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01039227980968877</v>
+        <v>0.01039443731027072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06714861005191315</v>
+        <v>0.07447541438002261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03095815728522459</v>
+        <v>0.03347401577115398</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08669489842769776</v>
+        <v>0.08125770354628581</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05886431263420717</v>
+        <v>0.04192167273251503</v>
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.0791227751553551</v>
+        <v>0.0766094985360999</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07001336845880564</v>
+        <v>0.08039401451939761</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03518019863366682</v>
+        <v>0.03554674452601384</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0388731750035976</v>
+        <v>0.04066681675411592</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06570189622882067</v>
+        <v>0.06899836867042394</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.241234406393401</v>
+        <v>0.2426597377548536</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09364023308594642</v>
+        <v>0.1031207272617223</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2548019898039231</v>
+        <v>0.2541906727120701</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.177027884508949</v>
+        <v>0.1836538894329953</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4416881432673299</v>
+        <v>0.4409042489713359</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2430737139627626</v>
+        <v>0.2337266558448623</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.2863958760944937</v>
+        <v>0.2915210113752105</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2521510944478373</v>
+        <v>0.2722179351735761</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.120284155135206</v>
+        <v>0.1227529727831258</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1459121333344818</v>
+        <v>0.1604221646166383</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1820858562137269</v>
+        <v>0.1851521465301014</v>
       </c>
     </row>
     <row r="16">
@@ -1247,37 +1247,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0271134025863117</v>
+        <v>0.02660856441901436</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06058105854035585</v>
+        <v>0.05657689752783242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01965822599119673</v>
+        <v>0.0217856516165835</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03398384869345396</v>
+        <v>0.03346516202250638</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1049957856276771</v>
+        <v>0.119580320804578</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1279342632871631</v>
+        <v>0.1248500747615043</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03117658389369276</v>
+        <v>0.03067344279161532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04438513647387046</v>
+        <v>0.04372276228982429</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1028563160766755</v>
+        <v>0.1035914183360899</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1103276983971372</v>
+        <v>0.1063284180902526</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5715816386146958</v>
+        <v>0.6051885914775669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2464125780890125</v>
+        <v>0.2347636246023778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.270377773486931</v>
+        <v>0.2547716369581516</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3307819387946002</v>
+        <v>0.3364491258353215</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3325030909129182</v>
+        <v>0.2797957068651215</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1926476825651912</v>
+        <v>0.1816988514967666</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3670353207114695</v>
+        <v>0.3903080020704984</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3035648359387738</v>
+        <v>0.2985244556216239</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3082352971598395</v>
+        <v>0.3050706075342305</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1709905356843681</v>
+        <v>0.1669763074433223</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2843230888490703</v>
+        <v>0.2729273247636563</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2594363014694995</v>
+        <v>0.2566264801097369</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.08727418054424631</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.121326000736664</v>
+        <v>0.1213260007366641</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1141877642916395</v>
@@ -1369,7 +1369,7 @@
         <v>0.05858474258163208</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09879243078153749</v>
+        <v>0.09879243078153752</v>
       </c>
     </row>
     <row r="20">
@@ -1383,33 +1383,33 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03531776022879941</v>
+        <v>0.03476153265277678</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.03663272473184291</v>
+        <v>0.03626121354693834</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0</v>
+        <v>0.01047113842793407</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03171826797271233</v>
+        <v>0.03222575324695342</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06190434519269718</v>
+        <v>0.06483253696198571</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04200176323218514</v>
+        <v>0.04222239905148591</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02467369693393838</v>
+        <v>0.0247794040810815</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02160968041177502</v>
+        <v>0.02184425579200795</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04654015812497095</v>
+        <v>0.05029675509066522</v>
       </c>
     </row>
     <row r="21">
@@ -1420,36 +1420,36 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3684245314040017</v>
+        <v>0.3200651963845517</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3152591705321692</v>
+        <v>0.3132821402473281</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.2990943188423096</v>
+        <v>0.299196060095924</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08834467937013099</v>
+        <v>0.08701069104960001</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1954239409102893</v>
+        <v>0.1839352089525979</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2074052097444448</v>
+        <v>0.2146845457652375</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2357039103262959</v>
+        <v>0.2297327882302453</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1159279444518942</v>
+        <v>0.1164595684751009</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.120079393739236</v>
+        <v>0.1247173044000866</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1701493339669857</v>
+        <v>0.1659252356537638</v>
       </c>
     </row>
     <row r="22">
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07972274964551808</v>
+        <v>0.0850365747456563</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05307158417411693</v>
+        <v>0.05326129021629107</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1420212609123317</v>
+        <v>0.1470881203027034</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09349000496762183</v>
+        <v>0.09249906697748701</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1099168660848197</v>
+        <v>0.1102232711843623</v>
       </c>
     </row>
     <row r="24">
@@ -1552,40 +1552,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2065006682891338</v>
+        <v>0.211033542425256</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1396039569803591</v>
+        <v>0.1348919010562639</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2352450314257037</v>
+        <v>0.2332528099851187</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1865699668756148</v>
+        <v>0.1877987507617981</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1721259706111799</v>
+        <v>0.1757461192141304</v>
       </c>
     </row>
     <row r="25">
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1879,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2595</v>
+        <v>2312</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1900</v>
+        <v>1796</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1901</v>
+        <v>2228</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3018</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="7">
@@ -1902,40 +1902,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4137</v>
+        <v>4799</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10529</v>
+        <v>11134</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7982</v>
+        <v>8850</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4893</v>
+        <v>5408</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4470</v>
+        <v>4435</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5468</v>
+        <v>6355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5813</v>
+        <v>5734</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9395</v>
+        <v>9304</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6152</v>
+        <v>6048</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>13306</v>
+        <v>11653</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10778</v>
+        <v>10755</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>11499</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="8">
@@ -2041,13 +2041,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1790</v>
+        <v>1719</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2059,19 +2059,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2796</v>
+        <v>3118</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2981</v>
+        <v>3581</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4883</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="11">
@@ -2082,40 +2082,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5141</v>
+        <v>5206</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9958</v>
+        <v>9313</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6894</v>
+        <v>7741</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6826</v>
+        <v>6917</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>3926</v>
+        <v>3707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8933</v>
+        <v>8485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5175</v>
+        <v>5482</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10412</v>
+        <v>10947</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6792</v>
+        <v>7366</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>14389</v>
+        <v>14581</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>8538</v>
+        <v>8832</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>14677</v>
+        <v>14790</v>
       </c>
     </row>
     <row r="12">
@@ -2218,38 +2218,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1767</v>
+        <v>1806</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1829</v>
+        <v>1938</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1600</v>
+        <v>1518</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>142</v>
+        <v>885</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1514</v>
+        <v>1441</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2185</v>
+        <v>2253</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3187</v>
+        <v>3030</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3912</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="15">
@@ -2260,38 +2260,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9984</v>
+        <v>9538</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9177</v>
+        <v>8818</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10152</v>
+        <v>11391</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9386</v>
+        <v>9799</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>6870</v>
+        <v>7094</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5553</v>
+        <v>5590</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6739</v>
+        <v>6824</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10059</v>
+        <v>9977</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12503</v>
+        <v>12788</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12702</v>
+        <v>13522</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>13911</v>
+        <v>13593</v>
       </c>
     </row>
     <row r="16">
@@ -2394,38 +2394,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1013</v>
+        <v>1052</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>994</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3961</v>
+        <v>4393</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2408</v>
+        <v>2604</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2168</v>
+        <v>2032</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2865</v>
+        <v>2041</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>4383</v>
+        <v>4244</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4483</v>
+        <v>5148</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5076</v>
+        <v>5129</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3788</v>
+        <v>3963</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>8750</v>
+        <v>9189</v>
       </c>
     </row>
     <row r="19">
@@ -2436,38 +2436,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>9414</v>
+        <v>9469</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8954</v>
+        <v>9860</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15031</v>
+        <v>14995</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>13769</v>
+        <v>14285</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>11047</v>
+        <v>11027</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11833</v>
+        <v>11378</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>15865</v>
+        <v>16149</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>16146</v>
+        <v>17431</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17357</v>
+        <v>17713</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14220</v>
+        <v>15634</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>24249</v>
+        <v>24657</v>
       </c>
     </row>
     <row r="20">
@@ -2573,37 +2573,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2519</v>
+        <v>2353</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>793</v>
+        <v>878</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1979</v>
+        <v>1949</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4243</v>
+        <v>4832</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7287</v>
+        <v>7111</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4283</v>
+        <v>4219</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8434</v>
+        <v>8494</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>10733</v>
+        <v>10344</v>
       </c>
     </row>
     <row r="23">
@@ -2614,40 +2614,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7225</v>
+        <v>7650</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9432</v>
+        <v>8986</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11243</v>
+        <v>10594</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13337</v>
+        <v>13566</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7464</v>
+        <v>6281</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11217</v>
+        <v>10580</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>14832</v>
+        <v>15773</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>17291</v>
+        <v>17004</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10816</v>
+        <v>10705</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>16501</v>
+        <v>16114</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>23313</v>
+        <v>22378</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>25238</v>
+        <v>24965</v>
       </c>
     </row>
     <row r="24">
@@ -2753,33 +2753,33 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1917</v>
+        <v>1948</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3046</v>
+        <v>3190</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2864</v>
+        <v>2876</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1946</v>
+        <v>1967</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2812</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="27">
@@ -2790,36 +2790,36 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5966</v>
+        <v>5182</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8457</v>
+        <v>8404</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>8387</v>
+        <v>8390</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7885</v>
+        <v>7766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11810</v>
+        <v>11116</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10204</v>
+        <v>10562</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10426</v>
+        <v>10162</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>13457</v>
+        <v>13519</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>10811</v>
+        <v>11228</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>10280</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="28">
@@ -2922,40 +2922,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9728</v>
+        <v>10376</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11580</v>
+        <v>11621</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>32013</v>
+        <v>33155</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>20177</v>
+        <v>19964</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>48760</v>
+        <v>48895</v>
       </c>
     </row>
     <row r="31">
@@ -2966,40 +2966,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>25197</v>
+        <v>25750</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>30460</v>
+        <v>29432</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>53027</v>
+        <v>52578</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>40266</v>
+        <v>40532</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>76356</v>
+        <v>77962</v>
       </c>
     </row>
     <row r="32">
